--- a/bloque2/inventariado.xlsx
+++ b/bloque2/inventariado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master\AIW\bloque2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EE24707-5253-41B2-B845-116AC7878AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB12C86-1212-4268-ACD4-874414024797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43D30482-E486-4678-A60E-D748690120E4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43D30482-E486-4678-A60E-D748690120E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="110">
   <si>
     <t>Tema</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Titulo</t>
   </si>
   <si>
-    <t>Palabras clave</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -152,13 +149,229 @@
   </si>
   <si>
     <t>Business Broadband and Phone Packages | Plusnet Business</t>
+  </si>
+  <si>
+    <t>/broadband</t>
+  </si>
+  <si>
+    <t>Our Cheapest Broadband, Phone &amp; Internet Deals | Plusnet</t>
+  </si>
+  <si>
+    <t>/broadband/extras</t>
+  </si>
+  <si>
+    <t>Broadband Extras | Security &amp; Call Plans | Plusnet</t>
+  </si>
+  <si>
+    <t>/broadband/switch</t>
+  </si>
+  <si>
+    <t>How to Switch Broadband Provider | Plusnet</t>
+  </si>
+  <si>
+    <t>/broadband/discover</t>
+  </si>
+  <si>
+    <t>Discover Our Connectivity Packages | Plusnet</t>
+  </si>
+  <si>
+    <t>/broadband/phone-faqs</t>
+  </si>
+  <si>
+    <t>Broadband and Phone - Frequently Asked Questions | Plusnet</t>
+  </si>
+  <si>
+    <t>/broadband/moving-home</t>
+  </si>
+  <si>
+    <t>Moving Home or Changing Address | Plusnet</t>
+  </si>
+  <si>
+    <t>/broadband/general-faqs</t>
+  </si>
+  <si>
+    <t>General - Frequently Asked Questions | Plusnet</t>
+  </si>
+  <si>
+    <t>/broadband/broadband-faqs</t>
+  </si>
+  <si>
+    <t>Frequently Asked Questions - Broadband | Plusnet</t>
+  </si>
+  <si>
+    <t>/broadband/fibre-and-phone</t>
+  </si>
+  <si>
+    <t>Fibre Broadband &amp; Internet Deals | Plusnet</t>
+  </si>
+  <si>
+    <t>/perks</t>
+  </si>
+  <si>
+    <t>Plusnet Perks | Customer Loyalty Rewards Programme | Plusnet</t>
+  </si>
+  <si>
+    <t>/perks/recommend-a-friend</t>
+  </si>
+  <si>
+    <t>Refer a Friend and Save on Your Broadband Bills | Plusnet</t>
+  </si>
+  <si>
+    <t>/broadband/discover/discover-fibre-extra</t>
+  </si>
+  <si>
+    <t>Discover Fibre Extra - Our packages guide | Plusnet</t>
+  </si>
+  <si>
+    <t>/bt-sport</t>
+  </si>
+  <si>
+    <t>BT Sports Subscription, Deals and Packages | Plusnet</t>
+  </si>
+  <si>
+    <t>/contact-us</t>
+  </si>
+  <si>
+    <t>Plusnet Contact | Plusnet</t>
+  </si>
+  <si>
+    <t>/mobile/deals/standard/12/6gb/Jun20</t>
+  </si>
+  <si>
+    <t>Cheap SIM Only Contracts - Talk, Text &amp; Data - Plusnet Mobile</t>
+  </si>
+  <si>
+    <t>/mobile/deals/15/50GB/unl/unl/Sep21</t>
+  </si>
+  <si>
+    <t>/business/discover/google-my-business-guide</t>
+  </si>
+  <si>
+    <t>Google My Business guide | Plusnet Business</t>
+  </si>
+  <si>
+    <t>/about-us</t>
+  </si>
+  <si>
+    <t>About us</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>Discover Fibre - Our packages guide | Plusnet</t>
+  </si>
+  <si>
+    <t>/broadband/discover/discover-fibre</t>
+  </si>
+  <si>
+    <t>Discover Broadband - Our packages guide | Plusnet</t>
+  </si>
+  <si>
+    <t>/broadband/discover/discover-broadband</t>
+  </si>
+  <si>
+    <t>Deals</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>fibre, broadband, packages, hub, sim</t>
+  </si>
+  <si>
+    <t>careers,jobs</t>
+  </si>
+  <si>
+    <t>jobs,search,roles,location</t>
+  </si>
+  <si>
+    <t>people, team mates, brew</t>
+  </si>
+  <si>
+    <t>inclusion, diversity,voluntering,awards</t>
+  </si>
+  <si>
+    <t>businesses,package,deals,switching,bonuses</t>
+  </si>
+  <si>
+    <t>moving,moving steps</t>
+  </si>
+  <si>
+    <t>dealer programme, business boost, other benefits</t>
+  </si>
+  <si>
+    <t>contact, help, questions</t>
+  </si>
+  <si>
+    <t>businesses,guides,support,deals,bonuses</t>
+  </si>
+  <si>
+    <t>businesses,contact, help, questions</t>
+  </si>
+  <si>
+    <t>businesses,google, small business, google my business, information, build, optimise, insigths</t>
+  </si>
+  <si>
+    <t>broadband, fibre, package, hub, deals, swithching,questions</t>
+  </si>
+  <si>
+    <t>broadband,security,sage,voicemail,talk</t>
+  </si>
+  <si>
+    <t>broadband,provider,switch,plusnet,packages</t>
+  </si>
+  <si>
+    <t>broadband,fibre,extra,internet,prices,faq</t>
+  </si>
+  <si>
+    <t>broadband,fibre,extra,internet,devices,faq</t>
+  </si>
+  <si>
+    <t>broadband,fibre,extra,internet,households,faq</t>
+  </si>
+  <si>
+    <t>broadband,fibre,extra,internet,surfing,faq</t>
+  </si>
+  <si>
+    <t>phone,faq,questions</t>
+  </si>
+  <si>
+    <t>moving,home,address, move on, questions</t>
+  </si>
+  <si>
+    <t>faq,questions</t>
+  </si>
+  <si>
+    <t>broadband,faq,questions</t>
+  </si>
+  <si>
+    <t>fibre,phone,package,plusnet,questions</t>
+  </si>
+  <si>
+    <t>broadband,extras,btsport,calls,sim,security,plusnet,prices</t>
+  </si>
+  <si>
+    <t>plusnet,recomend,friend</t>
+  </si>
+  <si>
+    <t>btsport,sports,watch</t>
+  </si>
+  <si>
+    <t>sim,buy,coverage,award,switching</t>
+  </si>
+  <si>
+    <t>about us, customer service,awards,plusnet,deals</t>
+  </si>
+  <si>
+    <t>applying, application process, CV, questions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,13 +394,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -204,12 +410,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -299,15 +505,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -428,15 +625,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -510,10 +698,12 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -523,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -546,6 +736,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -555,27 +748,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -583,50 +776,49 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,19 +1133,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62819C2E-2D6D-4672-9FED-CA135AD8A28B}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="65.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="3" max="4" width="65.42578125" customWidth="1"/>
+    <col min="5" max="5" width="45" customWidth="1"/>
     <col min="6" max="6" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -968,551 +1159,494 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>9</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+      <c r="D4" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32" t="s">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="32" t="s">
+      <c r="D5" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32" t="s">
+      <c r="D6" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="32" t="s">
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32" t="s">
+      <c r="D7" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32" t="s">
-        <v>27</v>
-      </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>10</v>
+      <c r="A8" s="24" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="6" t="s">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="6" t="s">
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="6" t="s">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="6" t="s">
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17" t="s">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="25"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="A31" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>66</v>
+      </c>
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="F32" s="18"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="27"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="14"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="11"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="9"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="26"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="34"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="36"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="36"/>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="38"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A41:A54"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="B52:B54"/>
+  <mergeCells count="7">
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A31:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
